--- a/data/accumulated/competitive_intelligence/ci_acumulado.xlsx
+++ b/data/accumulated/competitive_intelligence/ci_acumulado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N817"/>
+  <dimension ref="A1:N953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42875,6 +42875,7072 @@
         <v>1</v>
       </c>
     </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F818" t="n">
+        <v>124984</v>
+      </c>
+      <c r="G818" t="n">
+        <v>107900</v>
+      </c>
+      <c r="H818" t="n">
+        <v>149385</v>
+      </c>
+      <c r="I818" t="n">
+        <v>233174</v>
+      </c>
+      <c r="J818" t="n">
+        <v>204912</v>
+      </c>
+      <c r="K818" t="n">
+        <v>164071</v>
+      </c>
+      <c r="L818" t="n">
+        <v>146795.25</v>
+      </c>
+      <c r="M818" t="n">
+        <v>86378.75</v>
+      </c>
+      <c r="N818" t="n">
+        <v>0.5884301433459189</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F819" t="n">
+        <v>5</v>
+      </c>
+      <c r="G819" t="n">
+        <v>4</v>
+      </c>
+      <c r="H819" t="n">
+        <v>3</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3</v>
+      </c>
+      <c r="J819" t="n">
+        <v>5</v>
+      </c>
+      <c r="K819" t="n">
+        <v>4</v>
+      </c>
+      <c r="L819" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M819" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N819" t="n">
+        <v>-0.2941176470588235</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F820" t="n">
+        <v>68</v>
+      </c>
+      <c r="G820" t="n">
+        <v>65</v>
+      </c>
+      <c r="H820" t="n">
+        <v>69</v>
+      </c>
+      <c r="I820" t="n">
+        <v>74</v>
+      </c>
+      <c r="J820" t="n">
+        <v>72</v>
+      </c>
+      <c r="K820" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="L820" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M820" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N820" t="n">
+        <v>0.08029197080291969</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F821" t="n">
+        <v>73</v>
+      </c>
+      <c r="G821" t="n">
+        <v>69</v>
+      </c>
+      <c r="H821" t="n">
+        <v>72</v>
+      </c>
+      <c r="I821" t="n">
+        <v>77</v>
+      </c>
+      <c r="J821" t="n">
+        <v>77</v>
+      </c>
+      <c r="K821" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="L821" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="M821" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N821" t="n">
+        <v>0.0584192439862542</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F822" t="n">
+        <v>0</v>
+      </c>
+      <c r="G822" t="n">
+        <v>0</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0</v>
+      </c>
+      <c r="I822" t="n">
+        <v>0</v>
+      </c>
+      <c r="J822" t="n">
+        <v>0</v>
+      </c>
+      <c r="K822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F823" t="n">
+        <v>1838</v>
+      </c>
+      <c r="G823" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H823" t="n">
+        <v>2165</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J823" t="n">
+        <v>2846</v>
+      </c>
+      <c r="K823" t="n">
+        <v>2332</v>
+      </c>
+      <c r="L823" t="n">
+        <v>2127.25</v>
+      </c>
+      <c r="M823" t="n">
+        <v>1023.75</v>
+      </c>
+      <c r="N823" t="n">
+        <v>0.4812551416147608</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F824" t="n">
+        <v>1838</v>
+      </c>
+      <c r="G824" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H824" t="n">
+        <v>2165</v>
+      </c>
+      <c r="I824" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J824" t="n">
+        <v>2846</v>
+      </c>
+      <c r="K824" t="n">
+        <v>2332</v>
+      </c>
+      <c r="L824" t="n">
+        <v>2127.25</v>
+      </c>
+      <c r="M824" t="n">
+        <v>1023.75</v>
+      </c>
+      <c r="N824" t="n">
+        <v>0.4812551416147608</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F825" t="n">
+        <v>0.1576</v>
+      </c>
+      <c r="G825" t="n">
+        <v>0.1424</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0.1857</v>
+      </c>
+      <c r="I825" t="n">
+        <v>0.2702</v>
+      </c>
+      <c r="J825" t="n">
+        <v>0.2441</v>
+      </c>
+      <c r="K825" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L825" t="n">
+        <v>0.18245</v>
+      </c>
+      <c r="M825" t="n">
+        <v>0.08774999999999999</v>
+      </c>
+      <c r="N825" t="n">
+        <v>0.4809536859413537</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F826" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G826" t="n">
+        <v>347.6</v>
+      </c>
+      <c r="H826" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="I826" t="n">
+        <v>400</v>
+      </c>
+      <c r="J826" t="n">
+        <v>295.1</v>
+      </c>
+      <c r="K826" t="n">
+        <v>356.42</v>
+      </c>
+      <c r="L826" t="n">
+        <v>345.525</v>
+      </c>
+      <c r="M826" t="n">
+        <v>54.47500000000002</v>
+      </c>
+      <c r="N826" t="n">
+        <v>0.1576586354098836</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F827" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G827" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H827" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I827" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J827" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K827" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L827" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="M827" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N827" t="n">
+        <v>0.1811023622047244</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F828" t="n">
+        <v>2</v>
+      </c>
+      <c r="G828" t="n">
+        <v>2</v>
+      </c>
+      <c r="H828" t="n">
+        <v>2</v>
+      </c>
+      <c r="I828" t="n">
+        <v>2</v>
+      </c>
+      <c r="J828" t="n">
+        <v>2</v>
+      </c>
+      <c r="K828" t="n">
+        <v>2</v>
+      </c>
+      <c r="L828" t="n">
+        <v>2</v>
+      </c>
+      <c r="M828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F829" t="n">
+        <v>3490</v>
+      </c>
+      <c r="G829" t="n">
+        <v>1630</v>
+      </c>
+      <c r="H829" t="n">
+        <v>4112</v>
+      </c>
+      <c r="I829" t="n">
+        <v>4706</v>
+      </c>
+      <c r="J829" t="n">
+        <v>5336</v>
+      </c>
+      <c r="K829" t="n">
+        <v>3854.8</v>
+      </c>
+      <c r="L829" t="n">
+        <v>3642</v>
+      </c>
+      <c r="M829" t="n">
+        <v>1064</v>
+      </c>
+      <c r="N829" t="n">
+        <v>0.2921471718835804</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F830" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G830" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H830" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I830" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J830" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K830" t="n">
+        <v>8250</v>
+      </c>
+      <c r="L830" t="n">
+        <v>8062.5</v>
+      </c>
+      <c r="M830" t="n">
+        <v>937.5</v>
+      </c>
+      <c r="N830" t="n">
+        <v>0.1162790697674418</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F831" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G831" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H831" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I831" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J831" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K831" t="n">
+        <v>14800</v>
+      </c>
+      <c r="L831" t="n">
+        <v>14500</v>
+      </c>
+      <c r="M831" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N831" t="n">
+        <v>0.1034482758620689</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F832" t="n">
+        <v>65</v>
+      </c>
+      <c r="G832" t="n">
+        <v>68</v>
+      </c>
+      <c r="H832" t="n">
+        <v>80</v>
+      </c>
+      <c r="I832" t="n">
+        <v>93</v>
+      </c>
+      <c r="J832" t="n">
+        <v>89</v>
+      </c>
+      <c r="K832" t="n">
+        <v>79</v>
+      </c>
+      <c r="L832" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M832" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N832" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F833" t="n">
+        <v>145</v>
+      </c>
+      <c r="G833" t="n">
+        <v>135</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="n">
+        <v>170</v>
+      </c>
+      <c r="J833" t="n">
+        <v>40</v>
+      </c>
+      <c r="K833" t="n">
+        <v>98</v>
+      </c>
+      <c r="L833" t="n">
+        <v>80</v>
+      </c>
+      <c r="M833" t="n">
+        <v>90</v>
+      </c>
+      <c r="N833" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F834" t="n">
+        <v>60690</v>
+      </c>
+      <c r="G834" t="n">
+        <v>62620</v>
+      </c>
+      <c r="H834" t="n">
+        <v>65832</v>
+      </c>
+      <c r="I834" t="n">
+        <v>94612</v>
+      </c>
+      <c r="J834" t="n">
+        <v>60610</v>
+      </c>
+      <c r="K834" t="n">
+        <v>68872.8</v>
+      </c>
+      <c r="L834" t="n">
+        <v>62438</v>
+      </c>
+      <c r="M834" t="n">
+        <v>32174</v>
+      </c>
+      <c r="N834" t="n">
+        <v>0.5152951728114289</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F835" t="n">
+        <v>105</v>
+      </c>
+      <c r="G835" t="n">
+        <v>101</v>
+      </c>
+      <c r="H835" t="n">
+        <v>104</v>
+      </c>
+      <c r="I835" t="n">
+        <v>109</v>
+      </c>
+      <c r="J835" t="n">
+        <v>110</v>
+      </c>
+      <c r="K835" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="L835" t="n">
+        <v>105</v>
+      </c>
+      <c r="M835" t="n">
+        <v>4</v>
+      </c>
+      <c r="N835" t="n">
+        <v>0.0380952380952381</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F836" t="n">
+        <v>578</v>
+      </c>
+      <c r="G836" t="n">
+        <v>620</v>
+      </c>
+      <c r="H836" t="n">
+        <v>633</v>
+      </c>
+      <c r="I836" t="n">
+        <v>868</v>
+      </c>
+      <c r="J836" t="n">
+        <v>551</v>
+      </c>
+      <c r="K836" t="n">
+        <v>650</v>
+      </c>
+      <c r="L836" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="M836" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="N836" t="n">
+        <v>0.4575986565910999</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F837" t="n">
+        <v>578</v>
+      </c>
+      <c r="G837" t="n">
+        <v>620</v>
+      </c>
+      <c r="H837" t="n">
+        <v>633</v>
+      </c>
+      <c r="I837" t="n">
+        <v>868</v>
+      </c>
+      <c r="J837" t="n">
+        <v>551</v>
+      </c>
+      <c r="K837" t="n">
+        <v>650</v>
+      </c>
+      <c r="L837" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="M837" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="N837" t="n">
+        <v>0.4575986565910999</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F838" t="n">
+        <v>0.1778</v>
+      </c>
+      <c r="G838" t="n">
+        <v>0.1908</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0.1948</v>
+      </c>
+      <c r="I838" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="J838" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="K838" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L838" t="n">
+        <v>0.183225</v>
+      </c>
+      <c r="M838" t="n">
+        <v>0.08387500000000001</v>
+      </c>
+      <c r="N838" t="n">
+        <v>0.4577705007504434</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F839" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G839" t="n">
+        <v>347.6</v>
+      </c>
+      <c r="H839" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="I839" t="n">
+        <v>400</v>
+      </c>
+      <c r="J839" t="n">
+        <v>295.1</v>
+      </c>
+      <c r="K839" t="n">
+        <v>356.42</v>
+      </c>
+      <c r="L839" t="n">
+        <v>345.525</v>
+      </c>
+      <c r="M839" t="n">
+        <v>54.47500000000002</v>
+      </c>
+      <c r="N839" t="n">
+        <v>0.1576586354098836</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F840" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G840" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H840" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I840" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J840" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K840" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L840" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="M840" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N840" t="n">
+        <v>0.1811023622047244</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F841" t="n">
+        <v>1</v>
+      </c>
+      <c r="G841" t="n">
+        <v>1</v>
+      </c>
+      <c r="H841" t="n">
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>1</v>
+      </c>
+      <c r="J841" t="n">
+        <v>0</v>
+      </c>
+      <c r="K841" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L841" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M841" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N841" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F842" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G842" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H842" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I842" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J842" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K842" t="n">
+        <v>14800</v>
+      </c>
+      <c r="L842" t="n">
+        <v>14500</v>
+      </c>
+      <c r="M842" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N842" t="n">
+        <v>0.1034482758620689</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F843" t="n">
+        <v>65</v>
+      </c>
+      <c r="G843" t="n">
+        <v>68</v>
+      </c>
+      <c r="H843" t="n">
+        <v>80</v>
+      </c>
+      <c r="I843" t="n">
+        <v>93</v>
+      </c>
+      <c r="J843" t="n">
+        <v>89</v>
+      </c>
+      <c r="K843" t="n">
+        <v>79</v>
+      </c>
+      <c r="L843" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M843" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N843" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F844" t="n">
+        <v>145</v>
+      </c>
+      <c r="G844" t="n">
+        <v>135</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="n">
+        <v>170</v>
+      </c>
+      <c r="J844" t="n">
+        <v>40</v>
+      </c>
+      <c r="K844" t="n">
+        <v>98</v>
+      </c>
+      <c r="L844" t="n">
+        <v>80</v>
+      </c>
+      <c r="M844" t="n">
+        <v>90</v>
+      </c>
+      <c r="N844" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F845" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G845" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H845" t="n">
+        <v>13250</v>
+      </c>
+      <c r="I845" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J845" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K845" t="n">
+        <v>12850</v>
+      </c>
+      <c r="L845" t="n">
+        <v>12812.5</v>
+      </c>
+      <c r="M845" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="N845" t="n">
+        <v>0.0146341463414634</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F846" t="n">
+        <v>28807.8</v>
+      </c>
+      <c r="G846" t="n">
+        <v>0</v>
+      </c>
+      <c r="H846" t="n">
+        <v>33672</v>
+      </c>
+      <c r="I846" t="n">
+        <v>18048</v>
+      </c>
+      <c r="J846" t="n">
+        <v>0</v>
+      </c>
+      <c r="K846" t="n">
+        <v>16105.56</v>
+      </c>
+      <c r="L846" t="n">
+        <v>15619.95</v>
+      </c>
+      <c r="M846" t="n">
+        <v>2428.05</v>
+      </c>
+      <c r="N846" t="n">
+        <v>0.155445439966197</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F847" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G847" t="n">
+        <v>57</v>
+      </c>
+      <c r="H847" t="n">
+        <v>46</v>
+      </c>
+      <c r="I847" t="n">
+        <v>48</v>
+      </c>
+      <c r="J847" t="n">
+        <v>0</v>
+      </c>
+      <c r="K847" t="n">
+        <v>38.18</v>
+      </c>
+      <c r="L847" t="n">
+        <v>35.725</v>
+      </c>
+      <c r="M847" t="n">
+        <v>12.275</v>
+      </c>
+      <c r="N847" t="n">
+        <v>0.3435969209237228</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F848" t="n">
+        <v>722</v>
+      </c>
+      <c r="G848" t="n">
+        <v>468</v>
+      </c>
+      <c r="H848" t="n">
+        <v>771</v>
+      </c>
+      <c r="I848" t="n">
+        <v>565</v>
+      </c>
+      <c r="J848" t="n">
+        <v>0</v>
+      </c>
+      <c r="K848" t="n">
+        <v>505.2</v>
+      </c>
+      <c r="L848" t="n">
+        <v>490.25</v>
+      </c>
+      <c r="M848" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="N848" t="n">
+        <v>0.152473227944926</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F849" t="n">
+        <v>722</v>
+      </c>
+      <c r="G849" t="n">
+        <v>0</v>
+      </c>
+      <c r="H849" t="n">
+        <v>732</v>
+      </c>
+      <c r="I849" t="n">
+        <v>376</v>
+      </c>
+      <c r="J849" t="n">
+        <v>0</v>
+      </c>
+      <c r="K849" t="n">
+        <v>366</v>
+      </c>
+      <c r="L849" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="M849" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N849" t="n">
+        <v>0.0343878954607978</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F850" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G850" t="n">
+        <v>0</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I850" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="J850" t="n">
+        <v>0</v>
+      </c>
+      <c r="K850" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L850" t="n">
+        <v>0.19875</v>
+      </c>
+      <c r="M850" t="n">
+        <v>0.0062499999999999</v>
+      </c>
+      <c r="N850" t="n">
+        <v>0.031446540880503</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F851" t="n">
+        <v>5</v>
+      </c>
+      <c r="G851" t="n">
+        <v>5</v>
+      </c>
+      <c r="H851" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I851" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J851" t="n">
+        <v>0</v>
+      </c>
+      <c r="K851" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="L851" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M851" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N851" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F852" t="n">
+        <v>95922</v>
+      </c>
+      <c r="G852" t="n">
+        <v>106148</v>
+      </c>
+      <c r="H852" t="n">
+        <v>171258</v>
+      </c>
+      <c r="I852" t="n">
+        <v>159963</v>
+      </c>
+      <c r="J852" t="n">
+        <v>195064</v>
+      </c>
+      <c r="K852" t="n">
+        <v>145671</v>
+      </c>
+      <c r="L852" t="n">
+        <v>142098</v>
+      </c>
+      <c r="M852" t="n">
+        <v>17865</v>
+      </c>
+      <c r="N852" t="n">
+        <v>0.1257230925136173</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F853" t="n">
+        <v>4</v>
+      </c>
+      <c r="G853" t="n">
+        <v>6</v>
+      </c>
+      <c r="H853" t="n">
+        <v>3</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3</v>
+      </c>
+      <c r="J853" t="n">
+        <v>5</v>
+      </c>
+      <c r="K853" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L853" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M853" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N853" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F854" t="n">
+        <v>73</v>
+      </c>
+      <c r="G854" t="n">
+        <v>68</v>
+      </c>
+      <c r="H854" t="n">
+        <v>69</v>
+      </c>
+      <c r="I854" t="n">
+        <v>71</v>
+      </c>
+      <c r="J854" t="n">
+        <v>74</v>
+      </c>
+      <c r="K854" t="n">
+        <v>71</v>
+      </c>
+      <c r="L854" t="n">
+        <v>71</v>
+      </c>
+      <c r="M854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F855" t="n">
+        <v>77</v>
+      </c>
+      <c r="G855" t="n">
+        <v>74</v>
+      </c>
+      <c r="H855" t="n">
+        <v>72</v>
+      </c>
+      <c r="I855" t="n">
+        <v>74</v>
+      </c>
+      <c r="J855" t="n">
+        <v>79</v>
+      </c>
+      <c r="K855" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="L855" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M855" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N855" t="n">
+        <v>-0.0198675496688741</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F856" t="n">
+        <v>0</v>
+      </c>
+      <c r="G856" t="n">
+        <v>0</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0</v>
+      </c>
+      <c r="I856" t="n">
+        <v>0</v>
+      </c>
+      <c r="J856" t="n">
+        <v>0</v>
+      </c>
+      <c r="K856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F857" t="n">
+        <v>1314</v>
+      </c>
+      <c r="G857" t="n">
+        <v>1561</v>
+      </c>
+      <c r="H857" t="n">
+        <v>2482</v>
+      </c>
+      <c r="I857" t="n">
+        <v>2253</v>
+      </c>
+      <c r="J857" t="n">
+        <v>2636</v>
+      </c>
+      <c r="K857" t="n">
+        <v>2049.2</v>
+      </c>
+      <c r="L857" t="n">
+        <v>1998.25</v>
+      </c>
+      <c r="M857" t="n">
+        <v>254.75</v>
+      </c>
+      <c r="N857" t="n">
+        <v>0.1274865507318904</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F858" t="n">
+        <v>1314</v>
+      </c>
+      <c r="G858" t="n">
+        <v>1561</v>
+      </c>
+      <c r="H858" t="n">
+        <v>2482</v>
+      </c>
+      <c r="I858" t="n">
+        <v>2253</v>
+      </c>
+      <c r="J858" t="n">
+        <v>2636</v>
+      </c>
+      <c r="K858" t="n">
+        <v>2049.2</v>
+      </c>
+      <c r="L858" t="n">
+        <v>1998.25</v>
+      </c>
+      <c r="M858" t="n">
+        <v>254.75</v>
+      </c>
+      <c r="N858" t="n">
+        <v>0.1274865507318904</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F859" t="n">
+        <v>0.1282</v>
+      </c>
+      <c r="G859" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0.2422</v>
+      </c>
+      <c r="I859" t="n">
+        <v>0.2199</v>
+      </c>
+      <c r="J859" t="n">
+        <v>0.2573</v>
+      </c>
+      <c r="K859" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L859" t="n">
+        <v>0.195025</v>
+      </c>
+      <c r="M859" t="n">
+        <v>0.024875</v>
+      </c>
+      <c r="N859" t="n">
+        <v>0.1275477502884246</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F860" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G860" t="n">
+        <v>355.9</v>
+      </c>
+      <c r="H860" t="n">
+        <v>396</v>
+      </c>
+      <c r="I860" t="n">
+        <v>400</v>
+      </c>
+      <c r="J860" t="n">
+        <v>331.2</v>
+      </c>
+      <c r="K860" t="n">
+        <v>366.12</v>
+      </c>
+      <c r="L860" t="n">
+        <v>357.65</v>
+      </c>
+      <c r="M860" t="n">
+        <v>42.34999999999997</v>
+      </c>
+      <c r="N860" t="n">
+        <v>0.1184118551656646</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F861" t="n">
+        <v>6</v>
+      </c>
+      <c r="G861" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H861" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I861" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J861" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K861" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="L861" t="n">
+        <v>6.275</v>
+      </c>
+      <c r="M861" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="N861" t="n">
+        <v>0.195219123505976</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F862" t="n">
+        <v>2</v>
+      </c>
+      <c r="G862" t="n">
+        <v>2</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2</v>
+      </c>
+      <c r="I862" t="n">
+        <v>2</v>
+      </c>
+      <c r="J862" t="n">
+        <v>2</v>
+      </c>
+      <c r="K862" t="n">
+        <v>2</v>
+      </c>
+      <c r="L862" t="n">
+        <v>2</v>
+      </c>
+      <c r="M862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F863" t="n">
+        <v>2510</v>
+      </c>
+      <c r="G863" t="n">
+        <v>1753</v>
+      </c>
+      <c r="H863" t="n">
+        <v>4691</v>
+      </c>
+      <c r="I863" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J863" t="n">
+        <v>5220</v>
+      </c>
+      <c r="K863" t="n">
+        <v>3490</v>
+      </c>
+      <c r="L863" t="n">
+        <v>3543.5</v>
+      </c>
+      <c r="M863" t="n">
+        <v>-267.5</v>
+      </c>
+      <c r="N863" t="n">
+        <v>-0.0754903344151262</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F864" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G864" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H864" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I864" t="n">
+        <v>8500</v>
+      </c>
+      <c r="J864" t="n">
+        <v>9750</v>
+      </c>
+      <c r="K864" t="n">
+        <v>7350</v>
+      </c>
+      <c r="L864" t="n">
+        <v>7062.5</v>
+      </c>
+      <c r="M864" t="n">
+        <v>1437.5</v>
+      </c>
+      <c r="N864" t="n">
+        <v>0.2035398230088495</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F865" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G865" t="n">
+        <v>16000</v>
+      </c>
+      <c r="H865" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I865" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J865" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K865" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L865" t="n">
+        <v>15250</v>
+      </c>
+      <c r="M865" t="n">
+        <v>-1250</v>
+      </c>
+      <c r="N865" t="n">
+        <v>-0.081967213114754</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F866" t="n">
+        <v>65</v>
+      </c>
+      <c r="G866" t="n">
+        <v>68</v>
+      </c>
+      <c r="H866" t="n">
+        <v>80</v>
+      </c>
+      <c r="I866" t="n">
+        <v>93</v>
+      </c>
+      <c r="J866" t="n">
+        <v>89</v>
+      </c>
+      <c r="K866" t="n">
+        <v>79</v>
+      </c>
+      <c r="L866" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M866" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N866" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F867" t="n">
+        <v>110</v>
+      </c>
+      <c r="G867" t="n">
+        <v>130</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0</v>
+      </c>
+      <c r="I867" t="n">
+        <v>170</v>
+      </c>
+      <c r="J867" t="n">
+        <v>85</v>
+      </c>
+      <c r="K867" t="n">
+        <v>99</v>
+      </c>
+      <c r="L867" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="M867" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="N867" t="n">
+        <v>1.092307692307692</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F868" t="n">
+        <v>49280</v>
+      </c>
+      <c r="G868" t="n">
+        <v>52488</v>
+      </c>
+      <c r="H868" t="n">
+        <v>60216</v>
+      </c>
+      <c r="I868" t="n">
+        <v>81918</v>
+      </c>
+      <c r="J868" t="n">
+        <v>58719</v>
+      </c>
+      <c r="K868" t="n">
+        <v>60524.2</v>
+      </c>
+      <c r="L868" t="n">
+        <v>55175.75</v>
+      </c>
+      <c r="M868" t="n">
+        <v>26742.25</v>
+      </c>
+      <c r="N868" t="n">
+        <v>0.4846739736206576</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F869" t="n">
+        <v>110</v>
+      </c>
+      <c r="G869" t="n">
+        <v>108</v>
+      </c>
+      <c r="H869" t="n">
+        <v>104</v>
+      </c>
+      <c r="I869" t="n">
+        <v>111</v>
+      </c>
+      <c r="J869" t="n">
+        <v>111</v>
+      </c>
+      <c r="K869" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="L869" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="M869" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N869" t="n">
+        <v>0.0254041570438799</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F870" t="n">
+        <v>448</v>
+      </c>
+      <c r="G870" t="n">
+        <v>486</v>
+      </c>
+      <c r="H870" t="n">
+        <v>579</v>
+      </c>
+      <c r="I870" t="n">
+        <v>738</v>
+      </c>
+      <c r="J870" t="n">
+        <v>529</v>
+      </c>
+      <c r="K870" t="n">
+        <v>556</v>
+      </c>
+      <c r="L870" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="M870" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="N870" t="n">
+        <v>0.44564152791381</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F871" t="n">
+        <v>448</v>
+      </c>
+      <c r="G871" t="n">
+        <v>486</v>
+      </c>
+      <c r="H871" t="n">
+        <v>579</v>
+      </c>
+      <c r="I871" t="n">
+        <v>738</v>
+      </c>
+      <c r="J871" t="n">
+        <v>529</v>
+      </c>
+      <c r="K871" t="n">
+        <v>556</v>
+      </c>
+      <c r="L871" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="M871" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="N871" t="n">
+        <v>0.44564152791381</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F872" t="n">
+        <v>0.1612</v>
+      </c>
+      <c r="G872" t="n">
+        <v>0.1748</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0.2083</v>
+      </c>
+      <c r="I872" t="n">
+        <v>0.2655</v>
+      </c>
+      <c r="J872" t="n">
+        <v>0.1903</v>
+      </c>
+      <c r="K872" t="n">
+        <v>0.20002</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0.18365</v>
+      </c>
+      <c r="M872" t="n">
+        <v>0.08185000000000001</v>
+      </c>
+      <c r="N872" t="n">
+        <v>0.4456847263817043</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F873" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G873" t="n">
+        <v>355.9</v>
+      </c>
+      <c r="H873" t="n">
+        <v>396</v>
+      </c>
+      <c r="I873" t="n">
+        <v>400</v>
+      </c>
+      <c r="J873" t="n">
+        <v>331.2</v>
+      </c>
+      <c r="K873" t="n">
+        <v>366.12</v>
+      </c>
+      <c r="L873" t="n">
+        <v>357.65</v>
+      </c>
+      <c r="M873" t="n">
+        <v>42.34999999999997</v>
+      </c>
+      <c r="N873" t="n">
+        <v>0.1184118551656646</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F874" t="n">
+        <v>6</v>
+      </c>
+      <c r="G874" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H874" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I874" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J874" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K874" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="L874" t="n">
+        <v>6.275</v>
+      </c>
+      <c r="M874" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="N874" t="n">
+        <v>0.195219123505976</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F875" t="n">
+        <v>1</v>
+      </c>
+      <c r="G875" t="n">
+        <v>0</v>
+      </c>
+      <c r="H875" t="n">
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>1</v>
+      </c>
+      <c r="J875" t="n">
+        <v>0</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N875" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F876" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G876" t="n">
+        <v>16000</v>
+      </c>
+      <c r="H876" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I876" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J876" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K876" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L876" t="n">
+        <v>15250</v>
+      </c>
+      <c r="M876" t="n">
+        <v>-1250</v>
+      </c>
+      <c r="N876" t="n">
+        <v>-0.081967213114754</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F877" t="n">
+        <v>65</v>
+      </c>
+      <c r="G877" t="n">
+        <v>68</v>
+      </c>
+      <c r="H877" t="n">
+        <v>80</v>
+      </c>
+      <c r="I877" t="n">
+        <v>93</v>
+      </c>
+      <c r="J877" t="n">
+        <v>89</v>
+      </c>
+      <c r="K877" t="n">
+        <v>79</v>
+      </c>
+      <c r="L877" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M877" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N877" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F878" t="n">
+        <v>110</v>
+      </c>
+      <c r="G878" t="n">
+        <v>130</v>
+      </c>
+      <c r="H878" t="n">
+        <v>0</v>
+      </c>
+      <c r="I878" t="n">
+        <v>170</v>
+      </c>
+      <c r="J878" t="n">
+        <v>85</v>
+      </c>
+      <c r="K878" t="n">
+        <v>99</v>
+      </c>
+      <c r="L878" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="M878" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="N878" t="n">
+        <v>1.092307692307692</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F879" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G879" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H879" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I879" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J879" t="n">
+        <v>15500</v>
+      </c>
+      <c r="K879" t="n">
+        <v>13100</v>
+      </c>
+      <c r="L879" t="n">
+        <v>13125</v>
+      </c>
+      <c r="M879" t="n">
+        <v>-125</v>
+      </c>
+      <c r="N879" t="n">
+        <v>-0.0095238095238095</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F880" t="n">
+        <v>31783.6</v>
+      </c>
+      <c r="G880" t="n">
+        <v>0</v>
+      </c>
+      <c r="H880" t="n">
+        <v>17986</v>
+      </c>
+      <c r="I880" t="n">
+        <v>12744</v>
+      </c>
+      <c r="J880" t="n">
+        <v>20118</v>
+      </c>
+      <c r="K880" t="n">
+        <v>16526.32</v>
+      </c>
+      <c r="L880" t="n">
+        <v>17471.9</v>
+      </c>
+      <c r="M880" t="n">
+        <v>-4727.900000000001</v>
+      </c>
+      <c r="N880" t="n">
+        <v>-0.2706002209261729</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F881" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G881" t="n">
+        <v>62</v>
+      </c>
+      <c r="H881" t="n">
+        <v>46</v>
+      </c>
+      <c r="I881" t="n">
+        <v>54</v>
+      </c>
+      <c r="J881" t="n">
+        <v>42</v>
+      </c>
+      <c r="K881" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="L881" t="n">
+        <v>48.475</v>
+      </c>
+      <c r="M881" t="n">
+        <v>5.524999999999999</v>
+      </c>
+      <c r="N881" t="n">
+        <v>0.11397627643115</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F882" t="n">
+        <v>724</v>
+      </c>
+      <c r="G882" t="n">
+        <v>483</v>
+      </c>
+      <c r="H882" t="n">
+        <v>391</v>
+      </c>
+      <c r="I882" t="n">
+        <v>565</v>
+      </c>
+      <c r="J882" t="n">
+        <v>479</v>
+      </c>
+      <c r="K882" t="n">
+        <v>528.4</v>
+      </c>
+      <c r="L882" t="n">
+        <v>519.25</v>
+      </c>
+      <c r="M882" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="N882" t="n">
+        <v>0.0881078478574867</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F883" t="n">
+        <v>724</v>
+      </c>
+      <c r="G883" t="n">
+        <v>0</v>
+      </c>
+      <c r="H883" t="n">
+        <v>391</v>
+      </c>
+      <c r="I883" t="n">
+        <v>236</v>
+      </c>
+      <c r="J883" t="n">
+        <v>479</v>
+      </c>
+      <c r="K883" t="n">
+        <v>366</v>
+      </c>
+      <c r="L883" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="M883" t="n">
+        <v>-162.5</v>
+      </c>
+      <c r="N883" t="n">
+        <v>-0.4077791718946048</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F884" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="I884" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J884" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0.2002</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="M884" t="n">
+        <v>-0.089</v>
+      </c>
+      <c r="N884" t="n">
+        <v>-0.4082568807339449</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F885" t="n">
+        <v>5</v>
+      </c>
+      <c r="G885" t="n">
+        <v>5</v>
+      </c>
+      <c r="H885" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I885" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J885" t="n">
+        <v>5</v>
+      </c>
+      <c r="K885" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="L885" t="n">
+        <v>5.075</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0.0249999999999994</v>
+      </c>
+      <c r="N885" t="n">
+        <v>0.0049261083743841</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F886" t="n">
+        <v>99138</v>
+      </c>
+      <c r="G886" t="n">
+        <v>79788</v>
+      </c>
+      <c r="H886" t="n">
+        <v>111384</v>
+      </c>
+      <c r="I886" t="n">
+        <v>178756</v>
+      </c>
+      <c r="J886" t="n">
+        <v>158924</v>
+      </c>
+      <c r="K886" t="n">
+        <v>125598</v>
+      </c>
+      <c r="L886" t="n">
+        <v>112308.5</v>
+      </c>
+      <c r="M886" t="n">
+        <v>66447.5</v>
+      </c>
+      <c r="N886" t="n">
+        <v>0.5916515668894162</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F887" t="n">
+        <v>4</v>
+      </c>
+      <c r="G887" t="n">
+        <v>4</v>
+      </c>
+      <c r="H887" t="n">
+        <v>3</v>
+      </c>
+      <c r="I887" t="n">
+        <v>4</v>
+      </c>
+      <c r="J887" t="n">
+        <v>5</v>
+      </c>
+      <c r="K887" t="n">
+        <v>4</v>
+      </c>
+      <c r="L887" t="n">
+        <v>4</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F888" t="n">
+        <v>62</v>
+      </c>
+      <c r="G888" t="n">
+        <v>61</v>
+      </c>
+      <c r="H888" t="n">
+        <v>68</v>
+      </c>
+      <c r="I888" t="n">
+        <v>67</v>
+      </c>
+      <c r="J888" t="n">
+        <v>67</v>
+      </c>
+      <c r="K888" t="n">
+        <v>65</v>
+      </c>
+      <c r="L888" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="M888" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N888" t="n">
+        <v>0.0387596899224806</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F889" t="n">
+        <v>66</v>
+      </c>
+      <c r="G889" t="n">
+        <v>65</v>
+      </c>
+      <c r="H889" t="n">
+        <v>71</v>
+      </c>
+      <c r="I889" t="n">
+        <v>71</v>
+      </c>
+      <c r="J889" t="n">
+        <v>72</v>
+      </c>
+      <c r="K889" t="n">
+        <v>69</v>
+      </c>
+      <c r="L889" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M889" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N889" t="n">
+        <v>0.0364963503649635</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0</v>
+      </c>
+      <c r="I890" t="n">
+        <v>0</v>
+      </c>
+      <c r="J890" t="n">
+        <v>0</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F891" t="n">
+        <v>1599</v>
+      </c>
+      <c r="G891" t="n">
+        <v>1308</v>
+      </c>
+      <c r="H891" t="n">
+        <v>1638</v>
+      </c>
+      <c r="I891" t="n">
+        <v>2668</v>
+      </c>
+      <c r="J891" t="n">
+        <v>2372</v>
+      </c>
+      <c r="K891" t="n">
+        <v>1917</v>
+      </c>
+      <c r="L891" t="n">
+        <v>1729.25</v>
+      </c>
+      <c r="M891" t="n">
+        <v>938.75</v>
+      </c>
+      <c r="N891" t="n">
+        <v>0.542865404076912</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F892" t="n">
+        <v>1599</v>
+      </c>
+      <c r="G892" t="n">
+        <v>1308</v>
+      </c>
+      <c r="H892" t="n">
+        <v>1638</v>
+      </c>
+      <c r="I892" t="n">
+        <v>2668</v>
+      </c>
+      <c r="J892" t="n">
+        <v>2372</v>
+      </c>
+      <c r="K892" t="n">
+        <v>1917</v>
+      </c>
+      <c r="L892" t="n">
+        <v>1729.25</v>
+      </c>
+      <c r="M892" t="n">
+        <v>938.75</v>
+      </c>
+      <c r="N892" t="n">
+        <v>0.542865404076912</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F893" t="n">
+        <v>0.1668</v>
+      </c>
+      <c r="G893" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="H893" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="I893" t="n">
+        <v>0.2784</v>
+      </c>
+      <c r="J893" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0.20002</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0.180425</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0.0979749999999999</v>
+      </c>
+      <c r="N893" t="n">
+        <v>0.5430234169322432</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F894" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="G894" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="H894" t="n">
+        <v>398.3</v>
+      </c>
+      <c r="I894" t="n">
+        <v>400</v>
+      </c>
+      <c r="J894" t="n">
+        <v>344.1</v>
+      </c>
+      <c r="K894" t="n">
+        <v>378.3</v>
+      </c>
+      <c r="L894" t="n">
+        <v>372.875</v>
+      </c>
+      <c r="M894" t="n">
+        <v>27.125</v>
+      </c>
+      <c r="N894" t="n">
+        <v>0.0727455581629232</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F895" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G895" t="n">
+        <v>5</v>
+      </c>
+      <c r="H895" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I895" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J895" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K895" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="L895" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="M895" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="N895" t="n">
+        <v>0.1857707509881422</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F896" t="n">
+        <v>2</v>
+      </c>
+      <c r="G896" t="n">
+        <v>2</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2</v>
+      </c>
+      <c r="I896" t="n">
+        <v>2</v>
+      </c>
+      <c r="J896" t="n">
+        <v>2</v>
+      </c>
+      <c r="K896" t="n">
+        <v>2</v>
+      </c>
+      <c r="L896" t="n">
+        <v>2</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F897" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G897" t="n">
+        <v>1508</v>
+      </c>
+      <c r="H897" t="n">
+        <v>3865</v>
+      </c>
+      <c r="I897" t="n">
+        <v>4109</v>
+      </c>
+      <c r="J897" t="n">
+        <v>4580</v>
+      </c>
+      <c r="K897" t="n">
+        <v>3210.8</v>
+      </c>
+      <c r="L897" t="n">
+        <v>2986.25</v>
+      </c>
+      <c r="M897" t="n">
+        <v>1122.75</v>
+      </c>
+      <c r="N897" t="n">
+        <v>0.3759732105483466</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F898" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G898" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H898" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I898" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J898" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K898" t="n">
+        <v>7400</v>
+      </c>
+      <c r="L898" t="n">
+        <v>7375</v>
+      </c>
+      <c r="M898" t="n">
+        <v>125</v>
+      </c>
+      <c r="N898" t="n">
+        <v>0.0169491525423728</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F899" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G899" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H899" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I899" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J899" t="n">
+        <v>17500</v>
+      </c>
+      <c r="K899" t="n">
+        <v>11900</v>
+      </c>
+      <c r="L899" t="n">
+        <v>10875</v>
+      </c>
+      <c r="M899" t="n">
+        <v>5125</v>
+      </c>
+      <c r="N899" t="n">
+        <v>0.4712643678160919</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F900" t="n">
+        <v>65</v>
+      </c>
+      <c r="G900" t="n">
+        <v>68</v>
+      </c>
+      <c r="H900" t="n">
+        <v>80</v>
+      </c>
+      <c r="I900" t="n">
+        <v>93</v>
+      </c>
+      <c r="J900" t="n">
+        <v>89</v>
+      </c>
+      <c r="K900" t="n">
+        <v>79</v>
+      </c>
+      <c r="L900" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M900" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N900" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F901" t="n">
+        <v>160</v>
+      </c>
+      <c r="G901" t="n">
+        <v>155</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="n">
+        <v>135</v>
+      </c>
+      <c r="J901" t="n">
+        <v>60</v>
+      </c>
+      <c r="K901" t="n">
+        <v>102</v>
+      </c>
+      <c r="L901" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="M901" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="N901" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F902" t="n">
+        <v>50676</v>
+      </c>
+      <c r="G902" t="n">
+        <v>51156</v>
+      </c>
+      <c r="H902" t="n">
+        <v>37183</v>
+      </c>
+      <c r="I902" t="n">
+        <v>71583</v>
+      </c>
+      <c r="J902" t="n">
+        <v>58969</v>
+      </c>
+      <c r="K902" t="n">
+        <v>53913.4</v>
+      </c>
+      <c r="L902" t="n">
+        <v>49496</v>
+      </c>
+      <c r="M902" t="n">
+        <v>22087</v>
+      </c>
+      <c r="N902" t="n">
+        <v>0.4462380798448359</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F903" t="n">
+        <v>103</v>
+      </c>
+      <c r="G903" t="n">
+        <v>98</v>
+      </c>
+      <c r="H903" t="n">
+        <v>103</v>
+      </c>
+      <c r="I903" t="n">
+        <v>107</v>
+      </c>
+      <c r="J903" t="n">
+        <v>109</v>
+      </c>
+      <c r="K903" t="n">
+        <v>104</v>
+      </c>
+      <c r="L903" t="n">
+        <v>103.25</v>
+      </c>
+      <c r="M903" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N903" t="n">
+        <v>0.036319612590799</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F904" t="n">
+        <v>492</v>
+      </c>
+      <c r="G904" t="n">
+        <v>522</v>
+      </c>
+      <c r="H904" t="n">
+        <v>361</v>
+      </c>
+      <c r="I904" t="n">
+        <v>669</v>
+      </c>
+      <c r="J904" t="n">
+        <v>541</v>
+      </c>
+      <c r="K904" t="n">
+        <v>517</v>
+      </c>
+      <c r="L904" t="n">
+        <v>479</v>
+      </c>
+      <c r="M904" t="n">
+        <v>190</v>
+      </c>
+      <c r="N904" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F905" t="n">
+        <v>492</v>
+      </c>
+      <c r="G905" t="n">
+        <v>522</v>
+      </c>
+      <c r="H905" t="n">
+        <v>361</v>
+      </c>
+      <c r="I905" t="n">
+        <v>669</v>
+      </c>
+      <c r="J905" t="n">
+        <v>541</v>
+      </c>
+      <c r="K905" t="n">
+        <v>517</v>
+      </c>
+      <c r="L905" t="n">
+        <v>479</v>
+      </c>
+      <c r="M905" t="n">
+        <v>190</v>
+      </c>
+      <c r="N905" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F906" t="n">
+        <v>0.1903</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.2019</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0.1397</v>
+      </c>
+      <c r="I906" t="n">
+        <v>0.2588</v>
+      </c>
+      <c r="J906" t="n">
+        <v>0.2093</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0.1853</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0.0734999999999999</v>
+      </c>
+      <c r="N906" t="n">
+        <v>0.3966540744738259</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F907" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="G907" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="H907" t="n">
+        <v>398.3</v>
+      </c>
+      <c r="I907" t="n">
+        <v>400</v>
+      </c>
+      <c r="J907" t="n">
+        <v>344.1</v>
+      </c>
+      <c r="K907" t="n">
+        <v>378.3</v>
+      </c>
+      <c r="L907" t="n">
+        <v>372.875</v>
+      </c>
+      <c r="M907" t="n">
+        <v>27.125</v>
+      </c>
+      <c r="N907" t="n">
+        <v>0.0727455581629232</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F908" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G908" t="n">
+        <v>5</v>
+      </c>
+      <c r="H908" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I908" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J908" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K908" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="L908" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="M908" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="N908" t="n">
+        <v>0.1857707509881422</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F909" t="n">
+        <v>1</v>
+      </c>
+      <c r="G909" t="n">
+        <v>1</v>
+      </c>
+      <c r="H909" t="n">
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>1</v>
+      </c>
+      <c r="J909" t="n">
+        <v>1</v>
+      </c>
+      <c r="K909" t="n">
+        <v>1</v>
+      </c>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F910" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G910" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H910" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I910" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J910" t="n">
+        <v>17500</v>
+      </c>
+      <c r="K910" t="n">
+        <v>11900</v>
+      </c>
+      <c r="L910" t="n">
+        <v>10875</v>
+      </c>
+      <c r="M910" t="n">
+        <v>5125</v>
+      </c>
+      <c r="N910" t="n">
+        <v>0.4712643678160919</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F911" t="n">
+        <v>65</v>
+      </c>
+      <c r="G911" t="n">
+        <v>68</v>
+      </c>
+      <c r="H911" t="n">
+        <v>80</v>
+      </c>
+      <c r="I911" t="n">
+        <v>93</v>
+      </c>
+      <c r="J911" t="n">
+        <v>89</v>
+      </c>
+      <c r="K911" t="n">
+        <v>79</v>
+      </c>
+      <c r="L911" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M911" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N911" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F912" t="n">
+        <v>160</v>
+      </c>
+      <c r="G912" t="n">
+        <v>155</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="n">
+        <v>135</v>
+      </c>
+      <c r="J912" t="n">
+        <v>60</v>
+      </c>
+      <c r="K912" t="n">
+        <v>102</v>
+      </c>
+      <c r="L912" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="M912" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="N912" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F913" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G913" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H913" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I913" t="n">
+        <v>11000</v>
+      </c>
+      <c r="J913" t="n">
+        <v>12500</v>
+      </c>
+      <c r="K913" t="n">
+        <v>10300</v>
+      </c>
+      <c r="L913" t="n">
+        <v>10125</v>
+      </c>
+      <c r="M913" t="n">
+        <v>875</v>
+      </c>
+      <c r="N913" t="n">
+        <v>0.08641975308641971</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F914" t="n">
+        <v>33210.8</v>
+      </c>
+      <c r="G914" t="n">
+        <v>0</v>
+      </c>
+      <c r="H914" t="n">
+        <v>22575</v>
+      </c>
+      <c r="I914" t="n">
+        <v>0</v>
+      </c>
+      <c r="J914" t="n">
+        <v>27920</v>
+      </c>
+      <c r="K914" t="n">
+        <v>16741.16</v>
+      </c>
+      <c r="L914" t="n">
+        <v>20926.45</v>
+      </c>
+      <c r="M914" t="n">
+        <v>-20926.45</v>
+      </c>
+      <c r="N914" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F915" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="G915" t="n">
+        <v>54</v>
+      </c>
+      <c r="H915" t="n">
+        <v>43</v>
+      </c>
+      <c r="I915" t="n">
+        <v>49</v>
+      </c>
+      <c r="J915" t="n">
+        <v>40</v>
+      </c>
+      <c r="K915" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="L915" t="n">
+        <v>44.475</v>
+      </c>
+      <c r="M915" t="n">
+        <v>4.524999999999999</v>
+      </c>
+      <c r="N915" t="n">
+        <v>0.101742551995503</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F916" t="n">
+        <v>812</v>
+      </c>
+      <c r="G916" t="n">
+        <v>479</v>
+      </c>
+      <c r="H916" t="n">
+        <v>979</v>
+      </c>
+      <c r="I916" t="n">
+        <v>581</v>
+      </c>
+      <c r="J916" t="n">
+        <v>698</v>
+      </c>
+      <c r="K916" t="n">
+        <v>709.8</v>
+      </c>
+      <c r="L916" t="n">
+        <v>742</v>
+      </c>
+      <c r="M916" t="n">
+        <v>-161</v>
+      </c>
+      <c r="N916" t="n">
+        <v>-0.2169811320754717</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F917" t="n">
+        <v>812</v>
+      </c>
+      <c r="G917" t="n">
+        <v>0</v>
+      </c>
+      <c r="H917" t="n">
+        <v>525</v>
+      </c>
+      <c r="I917" t="n">
+        <v>0</v>
+      </c>
+      <c r="J917" t="n">
+        <v>698</v>
+      </c>
+      <c r="K917" t="n">
+        <v>407</v>
+      </c>
+      <c r="L917" t="n">
+        <v>508.75</v>
+      </c>
+      <c r="M917" t="n">
+        <v>-508.75</v>
+      </c>
+      <c r="N917" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F918" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="I918" t="n">
+        <v>0</v>
+      </c>
+      <c r="J918" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="K918" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M918" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N918" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F919" t="n">
+        <v>5</v>
+      </c>
+      <c r="G919" t="n">
+        <v>5</v>
+      </c>
+      <c r="H919" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I919" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J919" t="n">
+        <v>5</v>
+      </c>
+      <c r="K919" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="L919" t="n">
+        <v>5.075</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0.0249999999999994</v>
+      </c>
+      <c r="N919" t="n">
+        <v>0.0049261083743841</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F920" t="n">
+        <v>116156</v>
+      </c>
+      <c r="G920" t="n">
+        <v>90825</v>
+      </c>
+      <c r="H920" t="n">
+        <v>128380</v>
+      </c>
+      <c r="I920" t="n">
+        <v>234537.5</v>
+      </c>
+      <c r="J920" t="n">
+        <v>114816</v>
+      </c>
+      <c r="K920" t="n">
+        <v>136942.9</v>
+      </c>
+      <c r="L920" t="n">
+        <v>112544.25</v>
+      </c>
+      <c r="M920" t="n">
+        <v>121993.25</v>
+      </c>
+      <c r="N920" t="n">
+        <v>1.083958087596656</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F921" t="n">
+        <v>4</v>
+      </c>
+      <c r="G921" t="n">
+        <v>3</v>
+      </c>
+      <c r="H921" t="n">
+        <v>3</v>
+      </c>
+      <c r="I921" t="n">
+        <v>4</v>
+      </c>
+      <c r="J921" t="n">
+        <v>5</v>
+      </c>
+      <c r="K921" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L921" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M921" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N921" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F922" t="n">
+        <v>71</v>
+      </c>
+      <c r="G922" t="n">
+        <v>75</v>
+      </c>
+      <c r="H922" t="n">
+        <v>70</v>
+      </c>
+      <c r="I922" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J922" t="n">
+        <v>69</v>
+      </c>
+      <c r="K922" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="L922" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="M922" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N922" t="n">
+        <v>0.0175438596491228</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F923" t="n">
+        <v>75</v>
+      </c>
+      <c r="G923" t="n">
+        <v>78</v>
+      </c>
+      <c r="H923" t="n">
+        <v>73</v>
+      </c>
+      <c r="I923" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J923" t="n">
+        <v>74</v>
+      </c>
+      <c r="K923" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L923" t="n">
+        <v>75</v>
+      </c>
+      <c r="M923" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N923" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F924" t="n">
+        <v>28</v>
+      </c>
+      <c r="G924" t="n">
+        <v>123</v>
+      </c>
+      <c r="H924" t="n">
+        <v>186</v>
+      </c>
+      <c r="I924" t="n">
+        <v>-77</v>
+      </c>
+      <c r="J924" t="n">
+        <v>-260</v>
+      </c>
+      <c r="K924" t="n">
+        <v>0</v>
+      </c>
+      <c r="L924" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M924" t="n">
+        <v>-96.25</v>
+      </c>
+      <c r="N924" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F925" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G925" t="n">
+        <v>1088</v>
+      </c>
+      <c r="H925" t="n">
+        <v>1648</v>
+      </c>
+      <c r="I925" t="n">
+        <v>3312</v>
+      </c>
+      <c r="J925" t="n">
+        <v>1924</v>
+      </c>
+      <c r="K925" t="n">
+        <v>1916</v>
+      </c>
+      <c r="L925" t="n">
+        <v>1567</v>
+      </c>
+      <c r="M925" t="n">
+        <v>1745</v>
+      </c>
+      <c r="N925" t="n">
+        <v>1.113592852584556</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F926" t="n">
+        <v>1636</v>
+      </c>
+      <c r="G926" t="n">
+        <v>1211</v>
+      </c>
+      <c r="H926" t="n">
+        <v>1834</v>
+      </c>
+      <c r="I926" t="n">
+        <v>3235</v>
+      </c>
+      <c r="J926" t="n">
+        <v>1664</v>
+      </c>
+      <c r="K926" t="n">
+        <v>1916</v>
+      </c>
+      <c r="L926" t="n">
+        <v>1586.25</v>
+      </c>
+      <c r="M926" t="n">
+        <v>1648.75</v>
+      </c>
+      <c r="N926" t="n">
+        <v>1.03940110323089</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F927" t="n">
+        <v>0.1708</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0.1264</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0.1914</v>
+      </c>
+      <c r="I927" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="J927" t="n">
+        <v>0.1737</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L927" t="n">
+        <v>0.165575</v>
+      </c>
+      <c r="M927" t="n">
+        <v>0.172125</v>
+      </c>
+      <c r="N927" t="n">
+        <v>1.03955911218481</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F928" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="G928" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="H928" t="n">
+        <v>390.4</v>
+      </c>
+      <c r="I928" t="n">
+        <v>376.9</v>
+      </c>
+      <c r="J928" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="K928" t="n">
+        <v>353.8</v>
+      </c>
+      <c r="L928" t="n">
+        <v>348.025</v>
+      </c>
+      <c r="M928" t="n">
+        <v>28.875</v>
+      </c>
+      <c r="N928" t="n">
+        <v>0.08296817757345019</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F929" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G929" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H929" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I929" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J929" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K929" t="n">
+        <v>6.539999999999999</v>
+      </c>
+      <c r="L929" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="M929" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="N929" t="n">
+        <v>0.1699604743083004</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F930" t="n">
+        <v>2</v>
+      </c>
+      <c r="G930" t="n">
+        <v>3</v>
+      </c>
+      <c r="H930" t="n">
+        <v>3</v>
+      </c>
+      <c r="I930" t="n">
+        <v>2</v>
+      </c>
+      <c r="J930" t="n">
+        <v>2</v>
+      </c>
+      <c r="K930" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L930" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M930" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N930" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F931" t="n">
+        <v>3072</v>
+      </c>
+      <c r="G931" t="n">
+        <v>1080</v>
+      </c>
+      <c r="H931" t="n">
+        <v>3985</v>
+      </c>
+      <c r="I931" t="n">
+        <v>5597</v>
+      </c>
+      <c r="J931" t="n">
+        <v>3177</v>
+      </c>
+      <c r="K931" t="n">
+        <v>3382.2</v>
+      </c>
+      <c r="L931" t="n">
+        <v>2828.5</v>
+      </c>
+      <c r="M931" t="n">
+        <v>2768.5</v>
+      </c>
+      <c r="N931" t="n">
+        <v>0.9787873431147252</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F932" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G932" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H932" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I932" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J932" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K932" t="n">
+        <v>6050</v>
+      </c>
+      <c r="L932" t="n">
+        <v>5562.5</v>
+      </c>
+      <c r="M932" t="n">
+        <v>2437.5</v>
+      </c>
+      <c r="N932" t="n">
+        <v>0.4382022471910112</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F933" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G933" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H933" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I933" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J933" t="n">
+        <v>16500</v>
+      </c>
+      <c r="K933" t="n">
+        <v>12100</v>
+      </c>
+      <c r="L933" t="n">
+        <v>11625</v>
+      </c>
+      <c r="M933" t="n">
+        <v>2375</v>
+      </c>
+      <c r="N933" t="n">
+        <v>0.2043010752688172</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F934" t="n">
+        <v>65</v>
+      </c>
+      <c r="G934" t="n">
+        <v>68</v>
+      </c>
+      <c r="H934" t="n">
+        <v>80</v>
+      </c>
+      <c r="I934" t="n">
+        <v>93</v>
+      </c>
+      <c r="J934" t="n">
+        <v>89</v>
+      </c>
+      <c r="K934" t="n">
+        <v>79</v>
+      </c>
+      <c r="L934" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M934" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N934" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F935" t="n">
+        <v>105</v>
+      </c>
+      <c r="G935" t="n">
+        <v>155</v>
+      </c>
+      <c r="H935" t="n">
+        <v>0</v>
+      </c>
+      <c r="I935" t="n">
+        <v>130</v>
+      </c>
+      <c r="J935" t="n">
+        <v>100</v>
+      </c>
+      <c r="K935" t="n">
+        <v>98</v>
+      </c>
+      <c r="L935" t="n">
+        <v>90</v>
+      </c>
+      <c r="M935" t="n">
+        <v>40</v>
+      </c>
+      <c r="N935" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F936" t="n">
+        <v>55756</v>
+      </c>
+      <c r="G936" t="n">
+        <v>41202</v>
+      </c>
+      <c r="H936" t="n">
+        <v>42745</v>
+      </c>
+      <c r="I936" t="n">
+        <v>76670</v>
+      </c>
+      <c r="J936" t="n">
+        <v>67471</v>
+      </c>
+      <c r="K936" t="n">
+        <v>56768.8</v>
+      </c>
+      <c r="L936" t="n">
+        <v>51793.5</v>
+      </c>
+      <c r="M936" t="n">
+        <v>24876.5</v>
+      </c>
+      <c r="N936" t="n">
+        <v>0.4803015822448763</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F937" t="n">
+        <v>106</v>
+      </c>
+      <c r="G937" t="n">
+        <v>109</v>
+      </c>
+      <c r="H937" t="n">
+        <v>103</v>
+      </c>
+      <c r="I937" t="n">
+        <v>110</v>
+      </c>
+      <c r="J937" t="n">
+        <v>109</v>
+      </c>
+      <c r="K937" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="L937" t="n">
+        <v>106.75</v>
+      </c>
+      <c r="M937" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N937" t="n">
+        <v>0.0304449648711943</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F938" t="n">
+        <v>526</v>
+      </c>
+      <c r="G938" t="n">
+        <v>378</v>
+      </c>
+      <c r="H938" t="n">
+        <v>415</v>
+      </c>
+      <c r="I938" t="n">
+        <v>697</v>
+      </c>
+      <c r="J938" t="n">
+        <v>619</v>
+      </c>
+      <c r="K938" t="n">
+        <v>527</v>
+      </c>
+      <c r="L938" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="M938" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="N938" t="n">
+        <v>0.4385964912280701</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F939" t="n">
+        <v>526</v>
+      </c>
+      <c r="G939" t="n">
+        <v>378</v>
+      </c>
+      <c r="H939" t="n">
+        <v>415</v>
+      </c>
+      <c r="I939" t="n">
+        <v>697</v>
+      </c>
+      <c r="J939" t="n">
+        <v>619</v>
+      </c>
+      <c r="K939" t="n">
+        <v>527</v>
+      </c>
+      <c r="L939" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="M939" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="N939" t="n">
+        <v>0.4385964912280701</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F940" t="n">
+        <v>0.1996</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0.1575</v>
+      </c>
+      <c r="I940" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="J940" t="n">
+        <v>0.2349</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="L940" t="n">
+        <v>0.1838749999999999</v>
+      </c>
+      <c r="M940" t="n">
+        <v>0.080625</v>
+      </c>
+      <c r="N940" t="n">
+        <v>0.4384772263766147</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F941" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="G941" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="H941" t="n">
+        <v>390.4</v>
+      </c>
+      <c r="I941" t="n">
+        <v>376.9</v>
+      </c>
+      <c r="J941" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="K941" t="n">
+        <v>353.8</v>
+      </c>
+      <c r="L941" t="n">
+        <v>348.025</v>
+      </c>
+      <c r="M941" t="n">
+        <v>28.875</v>
+      </c>
+      <c r="N941" t="n">
+        <v>0.08296817757345019</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F942" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G942" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H942" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I942" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J942" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K942" t="n">
+        <v>6.539999999999999</v>
+      </c>
+      <c r="L942" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="M942" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="N942" t="n">
+        <v>0.1699604743083004</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F943" t="n">
+        <v>1</v>
+      </c>
+      <c r="G943" t="n">
+        <v>0</v>
+      </c>
+      <c r="H943" t="n">
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>1</v>
+      </c>
+      <c r="J943" t="n">
+        <v>1</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M943" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N943" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F944" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G944" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H944" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I944" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J944" t="n">
+        <v>16500</v>
+      </c>
+      <c r="K944" t="n">
+        <v>12100</v>
+      </c>
+      <c r="L944" t="n">
+        <v>11625</v>
+      </c>
+      <c r="M944" t="n">
+        <v>2375</v>
+      </c>
+      <c r="N944" t="n">
+        <v>0.2043010752688172</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F945" t="n">
+        <v>65</v>
+      </c>
+      <c r="G945" t="n">
+        <v>68</v>
+      </c>
+      <c r="H945" t="n">
+        <v>80</v>
+      </c>
+      <c r="I945" t="n">
+        <v>93</v>
+      </c>
+      <c r="J945" t="n">
+        <v>89</v>
+      </c>
+      <c r="K945" t="n">
+        <v>79</v>
+      </c>
+      <c r="L945" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="M945" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N945" t="n">
+        <v>0.2317880794701986</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F946" t="n">
+        <v>105</v>
+      </c>
+      <c r="G946" t="n">
+        <v>155</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0</v>
+      </c>
+      <c r="I946" t="n">
+        <v>130</v>
+      </c>
+      <c r="J946" t="n">
+        <v>100</v>
+      </c>
+      <c r="K946" t="n">
+        <v>98</v>
+      </c>
+      <c r="L946" t="n">
+        <v>90</v>
+      </c>
+      <c r="M946" t="n">
+        <v>40</v>
+      </c>
+      <c r="N946" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F947" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G947" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H947" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I947" t="n">
+        <v>11000</v>
+      </c>
+      <c r="J947" t="n">
+        <v>11500</v>
+      </c>
+      <c r="K947" t="n">
+        <v>8900</v>
+      </c>
+      <c r="L947" t="n">
+        <v>8375</v>
+      </c>
+      <c r="M947" t="n">
+        <v>2625</v>
+      </c>
+      <c r="N947" t="n">
+        <v>0.3134328358208955</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F948" t="n">
+        <v>22109.4</v>
+      </c>
+      <c r="G948" t="n">
+        <v>0</v>
+      </c>
+      <c r="H948" t="n">
+        <v>33153</v>
+      </c>
+      <c r="I948" t="n">
+        <v>39396</v>
+      </c>
+      <c r="J948" t="n">
+        <v>0</v>
+      </c>
+      <c r="K948" t="n">
+        <v>18931.68</v>
+      </c>
+      <c r="L948" t="n">
+        <v>13815.6</v>
+      </c>
+      <c r="M948" t="n">
+        <v>25580.4</v>
+      </c>
+      <c r="N948" t="n">
+        <v>1.851559107096326</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F949" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="G949" t="n">
+        <v>59</v>
+      </c>
+      <c r="H949" t="n">
+        <v>43</v>
+      </c>
+      <c r="I949" t="n">
+        <v>49</v>
+      </c>
+      <c r="J949" t="n">
+        <v>0</v>
+      </c>
+      <c r="K949" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="L949" t="n">
+        <v>38.475</v>
+      </c>
+      <c r="M949" t="n">
+        <v>10.525</v>
+      </c>
+      <c r="N949" t="n">
+        <v>0.2735542560103963</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F950" t="n">
+        <v>426</v>
+      </c>
+      <c r="G950" t="n">
+        <v>483</v>
+      </c>
+      <c r="H950" t="n">
+        <v>771</v>
+      </c>
+      <c r="I950" t="n">
+        <v>804</v>
+      </c>
+      <c r="J950" t="n">
+        <v>0</v>
+      </c>
+      <c r="K950" t="n">
+        <v>496.8</v>
+      </c>
+      <c r="L950" t="n">
+        <v>420</v>
+      </c>
+      <c r="M950" t="n">
+        <v>384</v>
+      </c>
+      <c r="N950" t="n">
+        <v>0.9142857142857144</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F951" t="n">
+        <v>426</v>
+      </c>
+      <c r="G951" t="n">
+        <v>0</v>
+      </c>
+      <c r="H951" t="n">
+        <v>771</v>
+      </c>
+      <c r="I951" t="n">
+        <v>804</v>
+      </c>
+      <c r="J951" t="n">
+        <v>0</v>
+      </c>
+      <c r="K951" t="n">
+        <v>400.2</v>
+      </c>
+      <c r="L951" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="M951" t="n">
+        <v>504.75</v>
+      </c>
+      <c r="N951" t="n">
+        <v>1.68671679197995</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F952" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="G952" t="n">
+        <v>0</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="I952" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="J952" t="n">
+        <v>0</v>
+      </c>
+      <c r="K952" t="n">
+        <v>0.1966</v>
+      </c>
+      <c r="L952" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M952" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="N952" t="n">
+        <v>1.687074829931973</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F953" t="n">
+        <v>5</v>
+      </c>
+      <c r="G953" t="n">
+        <v>5</v>
+      </c>
+      <c r="H953" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I953" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J953" t="n">
+        <v>0</v>
+      </c>
+      <c r="K953" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="L953" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M953" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N953" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/accumulated/competitive_intelligence/ci_acumulado.xlsx
+++ b/data/accumulated/competitive_intelligence/ci_acumulado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N953"/>
+  <dimension ref="A1:N1089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49941,6 +49941,7076 @@
         <v>0.3421052631578947</v>
       </c>
     </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F954" t="n">
+        <v>117975</v>
+      </c>
+      <c r="G954" t="n">
+        <v>131928</v>
+      </c>
+      <c r="H954" t="n">
+        <v>114678</v>
+      </c>
+      <c r="I954" t="n">
+        <v>296964</v>
+      </c>
+      <c r="J954" t="n">
+        <v>201456</v>
+      </c>
+      <c r="K954" t="n">
+        <v>172600.2</v>
+      </c>
+      <c r="L954" t="n">
+        <v>141509.25</v>
+      </c>
+      <c r="M954" t="n">
+        <v>155454.75</v>
+      </c>
+      <c r="N954" t="n">
+        <v>1.098548328112826</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F955" t="n">
+        <v>5</v>
+      </c>
+      <c r="G955" t="n">
+        <v>4</v>
+      </c>
+      <c r="H955" t="n">
+        <v>3</v>
+      </c>
+      <c r="I955" t="n">
+        <v>3</v>
+      </c>
+      <c r="J955" t="n">
+        <v>5</v>
+      </c>
+      <c r="K955" t="n">
+        <v>4</v>
+      </c>
+      <c r="L955" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M955" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N955" t="n">
+        <v>-0.2941176470588235</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F956" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="G956" t="n">
+        <v>69</v>
+      </c>
+      <c r="H956" t="n">
+        <v>69</v>
+      </c>
+      <c r="I956" t="n">
+        <v>73</v>
+      </c>
+      <c r="J956" t="n">
+        <v>72</v>
+      </c>
+      <c r="K956" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="L956" t="n">
+        <v>70.375</v>
+      </c>
+      <c r="M956" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="N956" t="n">
+        <v>0.0373001776198934</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F957" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="G957" t="n">
+        <v>73</v>
+      </c>
+      <c r="H957" t="n">
+        <v>72</v>
+      </c>
+      <c r="I957" t="n">
+        <v>76</v>
+      </c>
+      <c r="J957" t="n">
+        <v>77</v>
+      </c>
+      <c r="K957" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="L957" t="n">
+        <v>74.625</v>
+      </c>
+      <c r="M957" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="N957" t="n">
+        <v>0.0184254606365159</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F958" t="n">
+        <v>-38</v>
+      </c>
+      <c r="G958" t="n">
+        <v>7</v>
+      </c>
+      <c r="H958" t="n">
+        <v>6</v>
+      </c>
+      <c r="I958" t="n">
+        <v>15</v>
+      </c>
+      <c r="J958" t="n">
+        <v>10</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0</v>
+      </c>
+      <c r="L958" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="M958" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="N958" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F959" t="n">
+        <v>1688</v>
+      </c>
+      <c r="G959" t="n">
+        <v>1905</v>
+      </c>
+      <c r="H959" t="n">
+        <v>1656</v>
+      </c>
+      <c r="I959" t="n">
+        <v>4053</v>
+      </c>
+      <c r="J959" t="n">
+        <v>2788</v>
+      </c>
+      <c r="K959" t="n">
+        <v>2418</v>
+      </c>
+      <c r="L959" t="n">
+        <v>2009.25</v>
+      </c>
+      <c r="M959" t="n">
+        <v>2043.75</v>
+      </c>
+      <c r="N959" t="n">
+        <v>1.017170586039567</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F960" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G960" t="n">
+        <v>1912</v>
+      </c>
+      <c r="H960" t="n">
+        <v>1662</v>
+      </c>
+      <c r="I960" t="n">
+        <v>4068</v>
+      </c>
+      <c r="J960" t="n">
+        <v>2798</v>
+      </c>
+      <c r="K960" t="n">
+        <v>2418</v>
+      </c>
+      <c r="L960" t="n">
+        <v>2005.5</v>
+      </c>
+      <c r="M960" t="n">
+        <v>2062.5</v>
+      </c>
+      <c r="N960" t="n">
+        <v>1.028421839940165</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F961" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.1581</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I961" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="J961" t="n">
+        <v>0.2314</v>
+      </c>
+      <c r="K961" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L961" t="n">
+        <v>0.165875</v>
+      </c>
+      <c r="M961" t="n">
+        <v>0.170625</v>
+      </c>
+      <c r="N961" t="n">
+        <v>1.028636021100226</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F962" t="n">
+        <v>349.8</v>
+      </c>
+      <c r="G962" t="n">
+        <v>478.3</v>
+      </c>
+      <c r="H962" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="I962" t="n">
+        <v>491.3</v>
+      </c>
+      <c r="J962" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="K962" t="n">
+        <v>412.82</v>
+      </c>
+      <c r="L962" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="M962" t="n">
+        <v>98.10000000000002</v>
+      </c>
+      <c r="N962" t="n">
+        <v>0.2494913530010173</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F963" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G963" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H963" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I963" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J963" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K963" t="n">
+        <v>6.640000000000001</v>
+      </c>
+      <c r="L963" t="n">
+        <v>6.425000000000001</v>
+      </c>
+      <c r="M963" t="n">
+        <v>1.074999999999999</v>
+      </c>
+      <c r="N963" t="n">
+        <v>0.1673151750972761</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F964" t="n">
+        <v>2</v>
+      </c>
+      <c r="G964" t="n">
+        <v>2</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2</v>
+      </c>
+      <c r="I964" t="n">
+        <v>2</v>
+      </c>
+      <c r="J964" t="n">
+        <v>2</v>
+      </c>
+      <c r="K964" t="n">
+        <v>2</v>
+      </c>
+      <c r="L964" t="n">
+        <v>2</v>
+      </c>
+      <c r="M964" t="n">
+        <v>0</v>
+      </c>
+      <c r="N964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F965" t="n">
+        <v>2762</v>
+      </c>
+      <c r="G965" t="n">
+        <v>3076</v>
+      </c>
+      <c r="H965" t="n">
+        <v>3858</v>
+      </c>
+      <c r="I965" t="n">
+        <v>5608</v>
+      </c>
+      <c r="J965" t="n">
+        <v>5083</v>
+      </c>
+      <c r="K965" t="n">
+        <v>4077.4</v>
+      </c>
+      <c r="L965" t="n">
+        <v>3694.75</v>
+      </c>
+      <c r="M965" t="n">
+        <v>1913.25</v>
+      </c>
+      <c r="N965" t="n">
+        <v>0.5178293524595711</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F966" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G966" t="n">
+        <v>8250</v>
+      </c>
+      <c r="H966" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I966" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J966" t="n">
+        <v>8250</v>
+      </c>
+      <c r="K966" t="n">
+        <v>8400</v>
+      </c>
+      <c r="L966" t="n">
+        <v>8250</v>
+      </c>
+      <c r="M966" t="n">
+        <v>750</v>
+      </c>
+      <c r="N966" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F967" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G967" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H967" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I967" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J967" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K967" t="n">
+        <v>14200</v>
+      </c>
+      <c r="L967" t="n">
+        <v>13750</v>
+      </c>
+      <c r="M967" t="n">
+        <v>2250</v>
+      </c>
+      <c r="N967" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F968" t="n">
+        <v>72</v>
+      </c>
+      <c r="G968" t="n">
+        <v>65</v>
+      </c>
+      <c r="H968" t="n">
+        <v>84</v>
+      </c>
+      <c r="I968" t="n">
+        <v>100</v>
+      </c>
+      <c r="J968" t="n">
+        <v>93</v>
+      </c>
+      <c r="K968" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L968" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M968" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N968" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F969" t="n">
+        <v>145</v>
+      </c>
+      <c r="G969" t="n">
+        <v>75</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0</v>
+      </c>
+      <c r="I969" t="n">
+        <v>170</v>
+      </c>
+      <c r="J969" t="n">
+        <v>100</v>
+      </c>
+      <c r="K969" t="n">
+        <v>98</v>
+      </c>
+      <c r="L969" t="n">
+        <v>80</v>
+      </c>
+      <c r="M969" t="n">
+        <v>90</v>
+      </c>
+      <c r="N969" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F970" t="n">
+        <v>71172</v>
+      </c>
+      <c r="G970" t="n">
+        <v>71925</v>
+      </c>
+      <c r="H970" t="n">
+        <v>61152</v>
+      </c>
+      <c r="I970" t="n">
+        <v>107520</v>
+      </c>
+      <c r="J970" t="n">
+        <v>74011</v>
+      </c>
+      <c r="K970" t="n">
+        <v>77156</v>
+      </c>
+      <c r="L970" t="n">
+        <v>69565</v>
+      </c>
+      <c r="M970" t="n">
+        <v>37955</v>
+      </c>
+      <c r="N970" t="n">
+        <v>0.5456048300150937</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F971" t="n">
+        <v>108</v>
+      </c>
+      <c r="G971" t="n">
+        <v>105</v>
+      </c>
+      <c r="H971" t="n">
+        <v>104</v>
+      </c>
+      <c r="I971" t="n">
+        <v>112</v>
+      </c>
+      <c r="J971" t="n">
+        <v>109</v>
+      </c>
+      <c r="K971" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="L971" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="M971" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N971" t="n">
+        <v>0.0516431924882629</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F972" t="n">
+        <v>659</v>
+      </c>
+      <c r="G972" t="n">
+        <v>685</v>
+      </c>
+      <c r="H972" t="n">
+        <v>588</v>
+      </c>
+      <c r="I972" t="n">
+        <v>960</v>
+      </c>
+      <c r="J972" t="n">
+        <v>679</v>
+      </c>
+      <c r="K972" t="n">
+        <v>714.2</v>
+      </c>
+      <c r="L972" t="n">
+        <v>652.75</v>
+      </c>
+      <c r="M972" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="N972" t="n">
+        <v>0.4707008808885484</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F973" t="n">
+        <v>659</v>
+      </c>
+      <c r="G973" t="n">
+        <v>685</v>
+      </c>
+      <c r="H973" t="n">
+        <v>588</v>
+      </c>
+      <c r="I973" t="n">
+        <v>960</v>
+      </c>
+      <c r="J973" t="n">
+        <v>679</v>
+      </c>
+      <c r="K973" t="n">
+        <v>714.2</v>
+      </c>
+      <c r="L973" t="n">
+        <v>652.75</v>
+      </c>
+      <c r="M973" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="N973" t="n">
+        <v>0.4707008808885484</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F974" t="n">
+        <v>0.1845</v>
+      </c>
+      <c r="G974" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="H974" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="I974" t="n">
+        <v>0.2688</v>
+      </c>
+      <c r="J974" t="n">
+        <v>0.1901</v>
+      </c>
+      <c r="K974" t="n">
+        <v>0.1999799999999999</v>
+      </c>
+      <c r="L974" t="n">
+        <v>0.1827749999999999</v>
+      </c>
+      <c r="M974" t="n">
+        <v>0.086025</v>
+      </c>
+      <c r="N974" t="n">
+        <v>0.4706606483381208</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F975" t="n">
+        <v>349.8</v>
+      </c>
+      <c r="G975" t="n">
+        <v>478.3</v>
+      </c>
+      <c r="H975" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="I975" t="n">
+        <v>491.3</v>
+      </c>
+      <c r="J975" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="K975" t="n">
+        <v>412.82</v>
+      </c>
+      <c r="L975" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="M975" t="n">
+        <v>98.10000000000002</v>
+      </c>
+      <c r="N975" t="n">
+        <v>0.2494913530010173</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F976" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G976" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H976" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I976" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J976" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K976" t="n">
+        <v>6.640000000000001</v>
+      </c>
+      <c r="L976" t="n">
+        <v>6.425000000000001</v>
+      </c>
+      <c r="M976" t="n">
+        <v>1.074999999999999</v>
+      </c>
+      <c r="N976" t="n">
+        <v>0.1673151750972761</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F977" t="n">
+        <v>1</v>
+      </c>
+      <c r="G977" t="n">
+        <v>1</v>
+      </c>
+      <c r="H977" t="n">
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>1</v>
+      </c>
+      <c r="J977" t="n">
+        <v>1</v>
+      </c>
+      <c r="K977" t="n">
+        <v>1</v>
+      </c>
+      <c r="L977" t="n">
+        <v>1</v>
+      </c>
+      <c r="M977" t="n">
+        <v>0</v>
+      </c>
+      <c r="N977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F978" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G978" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H978" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I978" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J978" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K978" t="n">
+        <v>14200</v>
+      </c>
+      <c r="L978" t="n">
+        <v>13750</v>
+      </c>
+      <c r="M978" t="n">
+        <v>2250</v>
+      </c>
+      <c r="N978" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F979" t="n">
+        <v>72</v>
+      </c>
+      <c r="G979" t="n">
+        <v>65</v>
+      </c>
+      <c r="H979" t="n">
+        <v>84</v>
+      </c>
+      <c r="I979" t="n">
+        <v>100</v>
+      </c>
+      <c r="J979" t="n">
+        <v>93</v>
+      </c>
+      <c r="K979" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L979" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M979" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N979" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F980" t="n">
+        <v>145</v>
+      </c>
+      <c r="G980" t="n">
+        <v>75</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0</v>
+      </c>
+      <c r="I980" t="n">
+        <v>170</v>
+      </c>
+      <c r="J980" t="n">
+        <v>100</v>
+      </c>
+      <c r="K980" t="n">
+        <v>98</v>
+      </c>
+      <c r="L980" t="n">
+        <v>80</v>
+      </c>
+      <c r="M980" t="n">
+        <v>90</v>
+      </c>
+      <c r="N980" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F981" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G981" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H981" t="n">
+        <v>13250</v>
+      </c>
+      <c r="I981" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J981" t="n">
+        <v>13250</v>
+      </c>
+      <c r="K981" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L981" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M981" t="n">
+        <v>0</v>
+      </c>
+      <c r="N981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F982" t="n">
+        <v>5443.599999999999</v>
+      </c>
+      <c r="G982" t="n">
+        <v>17901</v>
+      </c>
+      <c r="H982" t="n">
+        <v>31734</v>
+      </c>
+      <c r="I982" t="n">
+        <v>0</v>
+      </c>
+      <c r="J982" t="n">
+        <v>24563</v>
+      </c>
+      <c r="K982" t="n">
+        <v>15928.32</v>
+      </c>
+      <c r="L982" t="n">
+        <v>19910.4</v>
+      </c>
+      <c r="M982" t="n">
+        <v>-19910.4</v>
+      </c>
+      <c r="N982" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F983" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G983" t="n">
+        <v>39</v>
+      </c>
+      <c r="H983" t="n">
+        <v>41</v>
+      </c>
+      <c r="I983" t="n">
+        <v>0</v>
+      </c>
+      <c r="J983" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="K983" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="L983" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="M983" t="n">
+        <v>-40.6</v>
+      </c>
+      <c r="N983" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F984" t="n">
+        <v>700</v>
+      </c>
+      <c r="G984" t="n">
+        <v>459</v>
+      </c>
+      <c r="H984" t="n">
+        <v>774</v>
+      </c>
+      <c r="I984" t="n">
+        <v>0</v>
+      </c>
+      <c r="J984" t="n">
+        <v>638</v>
+      </c>
+      <c r="K984" t="n">
+        <v>514.2</v>
+      </c>
+      <c r="L984" t="n">
+        <v>642.75</v>
+      </c>
+      <c r="M984" t="n">
+        <v>-642.75</v>
+      </c>
+      <c r="N984" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F985" t="n">
+        <v>124</v>
+      </c>
+      <c r="G985" t="n">
+        <v>459</v>
+      </c>
+      <c r="H985" t="n">
+        <v>774</v>
+      </c>
+      <c r="I985" t="n">
+        <v>0</v>
+      </c>
+      <c r="J985" t="n">
+        <v>638</v>
+      </c>
+      <c r="K985" t="n">
+        <v>399</v>
+      </c>
+      <c r="L985" t="n">
+        <v>498.75</v>
+      </c>
+      <c r="M985" t="n">
+        <v>-498.75</v>
+      </c>
+      <c r="N985" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F986" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="G986" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="I986" t="n">
+        <v>0</v>
+      </c>
+      <c r="J986" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K986" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M986" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N986" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F987" t="n">
+        <v>5</v>
+      </c>
+      <c r="G987" t="n">
+        <v>5</v>
+      </c>
+      <c r="H987" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I987" t="n">
+        <v>0</v>
+      </c>
+      <c r="J987" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K987" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="L987" t="n">
+        <v>5.074999999999999</v>
+      </c>
+      <c r="M987" t="n">
+        <v>-5.074999999999999</v>
+      </c>
+      <c r="N987" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F988" t="n">
+        <v>84280</v>
+      </c>
+      <c r="G988" t="n">
+        <v>114885</v>
+      </c>
+      <c r="H988" t="n">
+        <v>170844</v>
+      </c>
+      <c r="I988" t="n">
+        <v>189189</v>
+      </c>
+      <c r="J988" t="n">
+        <v>209346</v>
+      </c>
+      <c r="K988" t="n">
+        <v>153708.8</v>
+      </c>
+      <c r="L988" t="n">
+        <v>144838.75</v>
+      </c>
+      <c r="M988" t="n">
+        <v>44350.25</v>
+      </c>
+      <c r="N988" t="n">
+        <v>0.3062043134175074</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F989" t="n">
+        <v>5</v>
+      </c>
+      <c r="G989" t="n">
+        <v>6</v>
+      </c>
+      <c r="H989" t="n">
+        <v>3</v>
+      </c>
+      <c r="I989" t="n">
+        <v>0</v>
+      </c>
+      <c r="J989" t="n">
+        <v>5</v>
+      </c>
+      <c r="K989" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L989" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M989" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="N989" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F990" t="n">
+        <v>70</v>
+      </c>
+      <c r="G990" t="n">
+        <v>69</v>
+      </c>
+      <c r="H990" t="n">
+        <v>69</v>
+      </c>
+      <c r="I990" t="n">
+        <v>77</v>
+      </c>
+      <c r="J990" t="n">
+        <v>74</v>
+      </c>
+      <c r="K990" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="L990" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M990" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N990" t="n">
+        <v>0.0921985815602836</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F991" t="n">
+        <v>75</v>
+      </c>
+      <c r="G991" t="n">
+        <v>75</v>
+      </c>
+      <c r="H991" t="n">
+        <v>72</v>
+      </c>
+      <c r="I991" t="n">
+        <v>77</v>
+      </c>
+      <c r="J991" t="n">
+        <v>79</v>
+      </c>
+      <c r="K991" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="L991" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M991" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N991" t="n">
+        <v>0.0232558139534883</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F992" t="n">
+        <v>-227</v>
+      </c>
+      <c r="G992" t="n">
+        <v>191</v>
+      </c>
+      <c r="H992" t="n">
+        <v>284</v>
+      </c>
+      <c r="I992" t="n">
+        <v>-198</v>
+      </c>
+      <c r="J992" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="M992" t="n">
+        <v>-247.5</v>
+      </c>
+      <c r="N992" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F993" t="n">
+        <v>1431</v>
+      </c>
+      <c r="G993" t="n">
+        <v>1474</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2192</v>
+      </c>
+      <c r="I993" t="n">
+        <v>2655</v>
+      </c>
+      <c r="J993" t="n">
+        <v>2879</v>
+      </c>
+      <c r="K993" t="n">
+        <v>2126.2</v>
+      </c>
+      <c r="L993" t="n">
+        <v>1994</v>
+      </c>
+      <c r="M993" t="n">
+        <v>661</v>
+      </c>
+      <c r="N993" t="n">
+        <v>0.331494483450351</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F994" t="n">
+        <v>1204</v>
+      </c>
+      <c r="G994" t="n">
+        <v>1665</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2476</v>
+      </c>
+      <c r="I994" t="n">
+        <v>2457</v>
+      </c>
+      <c r="J994" t="n">
+        <v>2829</v>
+      </c>
+      <c r="K994" t="n">
+        <v>2126.2</v>
+      </c>
+      <c r="L994" t="n">
+        <v>2043.5</v>
+      </c>
+      <c r="M994" t="n">
+        <v>413.5</v>
+      </c>
+      <c r="N994" t="n">
+        <v>0.2023489111817959</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F995" t="n">
+        <v>0.1133</v>
+      </c>
+      <c r="G995" t="n">
+        <v>0.1566</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0.2329</v>
+      </c>
+      <c r="I995" t="n">
+        <v>0.2311</v>
+      </c>
+      <c r="J995" t="n">
+        <v>0.2661</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0.1922249999999999</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0.038875</v>
+      </c>
+      <c r="N995" t="n">
+        <v>0.2022369618936143</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F996" t="n">
+        <v>349.6</v>
+      </c>
+      <c r="G996" t="n">
+        <v>398.4</v>
+      </c>
+      <c r="H996" t="n">
+        <v>399.6</v>
+      </c>
+      <c r="I996" t="n">
+        <v>486.2</v>
+      </c>
+      <c r="J996" t="n">
+        <v>390</v>
+      </c>
+      <c r="K996" t="n">
+        <v>404.76</v>
+      </c>
+      <c r="L996" t="n">
+        <v>384.4</v>
+      </c>
+      <c r="M996" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="N996" t="n">
+        <v>0.2648283038501561</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F997" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G997" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H997" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I997" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J997" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K997" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="L997" t="n">
+        <v>6.475</v>
+      </c>
+      <c r="M997" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="N997" t="n">
+        <v>0.1583011583011583</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F998" t="n">
+        <v>2</v>
+      </c>
+      <c r="G998" t="n">
+        <v>2</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2</v>
+      </c>
+      <c r="I998" t="n">
+        <v>2</v>
+      </c>
+      <c r="J998" t="n">
+        <v>2</v>
+      </c>
+      <c r="K998" t="n">
+        <v>2</v>
+      </c>
+      <c r="L998" t="n">
+        <v>2</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F999" t="n">
+        <v>2071</v>
+      </c>
+      <c r="G999" t="n">
+        <v>1711</v>
+      </c>
+      <c r="H999" t="n">
+        <v>4704</v>
+      </c>
+      <c r="I999" t="n">
+        <v>4689</v>
+      </c>
+      <c r="J999" t="n">
+        <v>5470</v>
+      </c>
+      <c r="K999" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L999" t="n">
+        <v>3489</v>
+      </c>
+      <c r="M999" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N999" t="n">
+        <v>0.3439380911435941</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F1000" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>6250</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>6950</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>7187.5</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>-1187.5</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>-0.1652173913043478</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F1001" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>16000</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>16500</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>14100</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>15125</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>-5125</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>-0.3388429752066115</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F1002" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>84</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>100</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>93</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F1003" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>170</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>135</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>99</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>1.092307692307692</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1004" t="n">
+        <v>61270</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>52704</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>57200</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>86912</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>79665</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>67550.2</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>62709.75</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>24202.25</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>0.3859407827331476</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1005" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>108</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>104</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>112</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>113</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>0.0298850574712643</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F1006" t="n">
+        <v>557</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>488</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>550</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>776</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>705</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>615.2</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>575</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>201</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>0.3495652173913043</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1007" t="n">
+        <v>557</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>488</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>550</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>776</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>705</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>615.2</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>575</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>201</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>0.3495652173913043</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.1811</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>0.1586</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0.1788</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>0.2292</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0.1869249999999999</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0.065375</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>0.3497392002139898</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F1009" t="n">
+        <v>349.6</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>398.4</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>399.6</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>486.2</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>390</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>404.76</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>384.4</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>0.2648283038501561</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F1010" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>6.475</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>0.1583011583011583</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F1012" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>16000</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>16500</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>14100</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>15125</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>-5125</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>-0.3388429752066115</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F1013" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>84</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>100</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>93</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F1014" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>170</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>135</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>99</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>1.092307692307692</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F1015" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>13500</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>13625</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>-625</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>-0.0458715596330275</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1016" t="n">
+        <v>28886.2</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>18642</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>31980</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>15901.64</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>19877.05</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>-19877.05</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F1017" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>39</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>30.975</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>-30.975</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F1018" t="n">
+        <v>658</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>478</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>780</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>479</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>-479</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1019" t="n">
+        <v>658</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>478</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>780</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>479</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>-479</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0.1922</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>-0.24025</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F1021" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1022" t="n">
+        <v>93907.5</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>83720</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>85224</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>226248</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>193161</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>136452.1</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>114003.125</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>112244.875</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>0.9845771771607138</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1023" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1024" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>67</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>66</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>67</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>66.17999999999999</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>66.22499999999999</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>-0.2249999999999943</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>-0.0033975084937711</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1025" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>69</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>71</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>70</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>72</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>70.58</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>70.72499999999999</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>-0.7249999999999943</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>-0.010250972074938</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F1026" t="n">
+        <v>-135</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>-19</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>82</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>-23.75</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F1027" t="n">
+        <v>1560</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>1252</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>1236</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>3447</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>2801</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>2059.2</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>1712.25</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>1734.75</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>1.013140604467806</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1028" t="n">
+        <v>1425</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>1272</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>3428</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>2883</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>2059.2</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>1717</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>1711</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>0.9965055329062318</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1029" t="n">
+        <v>0.1384</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>0.1251</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0.16675</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0.1661499999999999</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>0.9964017991004496</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F1030" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>474.4</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>490.7</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>392.7</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>0.2140029688273132</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F1031" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>0.1718750000000001</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F1033" t="n">
+        <v>2685</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>1576</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>3372</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>5073</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>5080</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>3557.2</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>3178.25</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>1894.75</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>0.5961614095807442</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F1034" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>7200</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>7125</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>375</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F1035" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>11625</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>4375</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>0.3763440860215054</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F1036" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>84</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>100</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>93</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F1037" t="n">
+        <v>160</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>95</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>135</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>120</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>102</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1038" t="n">
+        <v>62521</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>52624</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>39690</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>86991</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>69764</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>62318</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>56149.75</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>30841.25</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>0.5492678061790124</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1039" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>104</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>105</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>107</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>107</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>0.0214797136038186</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F1040" t="n">
+        <v>607</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>506</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>378</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>813</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>652</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>535.75</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>277.25</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>0.5174988334111059</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1041" t="n">
+        <v>607</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>506</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>378</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>813</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>652</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>535.75</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>277.25</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>0.5174988334111059</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1042" t="n">
+        <v>0.2053</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>0.1712</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>0.1279</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>0.2206</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0.18125</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>0.517241379310345</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F1043" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>474.4</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>490.7</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>392.7</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>0.2140029688273132</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F1044" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>0.1718750000000001</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F1046" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>11625</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>4375</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>0.3763440860215054</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F1047" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>84</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>100</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>93</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F1048" t="n">
+        <v>160</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>95</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>135</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>120</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>102</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F1049" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>9000</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>11000</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>11500</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>11100</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>11125</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>-125</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>-0.0112359550561797</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1050" t="n">
+        <v>35949.9</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>18525</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>32144</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>17323.78</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>21654.725</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>-21654.725</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F1051" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>39</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>29.975</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>-29.975</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F1052" t="n">
+        <v>901</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>475</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>784</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>432</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>540</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>-540</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1053" t="n">
+        <v>901</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>475</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>784</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>432</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>540</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>-540</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1054" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0.1911999999999999</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>-0.239</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F1055" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>1 - a - Wholesale Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1056" t="n">
+        <v>98770</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>86832</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>82142</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>271504</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>196488</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>147147.2</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>116058</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>155446</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>1.33938203312137</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1057" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>-0.0588235294117647</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1058" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>72</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>67</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>71</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>72</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>0.0106761565836298</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1059" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>75</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>71</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>75</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>77</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>0.0067114093959731</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F1061" t="n">
+        <v>1411</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>1206</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>1226</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>3824</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>2729</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>2079.2</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>1643</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>2181</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>1.327449786975046</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>1 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1062" t="n">
+        <v>1411</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>1206</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>1226</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>3824</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>2729</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>2079.2</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>1643</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>2181</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>1.327449786975046</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>1 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1063" t="n">
+        <v>0.1357</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>0.1179</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>0.3678</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0.158025</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0.209775</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>1.327479829140959</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>1 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F1064" t="n">
+        <v>349.8</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>424.1</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>399.6</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>351.8</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>403.5</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>381.325</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>110.875</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>0.2907624729561398</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F1065" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>6.720000000000001</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0.9750000000000004</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>0.1494252873563219</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>1 - f - Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>1 - f - Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F1067" t="n">
+        <v>2478</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>932</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2984</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>5911</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>4576</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>3376.2</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>2742.5</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>3168.5</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>1.155332725615314</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F1068" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>5250</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F1069" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>12800</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F1070" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>84</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>100</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>93</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>1 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F1071" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>60</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>130</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>195</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>98</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>90</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>2 - a - Retail Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1072" t="n">
+        <v>61964.10000000001</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>38368</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>47936</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>96470</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>80190</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>64985.62</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>57114.525</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>39355.475</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>0.6890624582800959</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F1073" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>109</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>107</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>110</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>108.725</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>1.275000000000006</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>0.0117268337548862</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F1074" t="n">
+        <v>569</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>352</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>448</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>877</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>729</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>595</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>524.5</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>0.6720686367969495</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1075" t="n">
+        <v>569</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>352</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>448</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>877</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>729</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>595</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>524.5</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>0.6720686367969495</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1076" t="n">
+        <v>0.1913</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>0.1183</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>0.1506</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>0.2948</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0.1763</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>0.6721497447532614</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F1077" t="n">
+        <v>349.8</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>424.1</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>399.6</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>351.8</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>403.5</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>381.325</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>110.875</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>0.2907624729561398</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F1078" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>6.720000000000001</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0.9750000000000004</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>0.1494252873563219</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F1080" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>12800</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F1081" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>84</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>100</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>93</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F1082" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>60</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>130</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>195</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>98</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>90</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F1083" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>11000</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>9800</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>0.1578947368421052</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F1084" t="n">
+        <v>35207.8</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>18525</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>38872</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>18520.96</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>23151.2</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>-23151.2</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F1085" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>39</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>43</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>31.475</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>-31.475</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F1086" t="n">
+        <v>802</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>475</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>904</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>436.2</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>-545.25</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F1087" t="n">
+        <v>802</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>475</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>904</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>436.2</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>-545.25</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F1088" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0.24125</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>-0.24125</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F1089" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
